--- a/5 семестр (Квантовая физика)/1.3/1.3.xlsx
+++ b/5 семестр (Квантовая физика)/1.3/1.3.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/5 семестр (Квантовая физика)/1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B46871-F6EE-A144-A455-622F67B4C700}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A2160-0E25-414E-839B-9E036304C3FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{43C17BC0-4BD1-6B44-8169-586CCA6F049B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{43C17BC0-4BD1-6B44-8169-586CCA6F049B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>напряжение между катодом и сеткой</t>
   </si>
@@ -74,11 +77,38 @@
   <si>
     <t>V, В</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>yfr</t>
+  </si>
+  <si>
+    <t>Ia</t>
+  </si>
+  <si>
+    <t>dfv</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -109,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -143,6 +174,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40942263105544813"/>
+          <c:y val="0.42678062418766588"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -222,69 +261,66 @@
                   <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.81</c:v>
+                  <c:v>2.4260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4260000000000002</c:v>
+                  <c:v>3.4260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4260000000000002</c:v>
+                  <c:v>4.4870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4870000000000001</c:v>
+                  <c:v>5.0129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0129999999999999</c:v>
+                  <c:v>5.4770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4770000000000003</c:v>
+                  <c:v>6.1719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1719999999999997</c:v>
+                  <c:v>6.7270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7270000000000003</c:v>
+                  <c:v>7.444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.444</c:v>
+                  <c:v>8.3960000000000008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3960000000000008</c:v>
+                  <c:v>9.8260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.8260000000000005</c:v>
+                  <c:v>11.935</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.935</c:v>
+                  <c:v>2.004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.004</c:v>
+                  <c:v>2.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1680000000000001</c:v>
+                  <c:v>2.117</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.117</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.08</c:v>
+                  <c:v>1.984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.984</c:v>
+                  <c:v>1.657</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.657</c:v>
+                  <c:v>1.546</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.546</c:v>
+                  <c:v>1.3480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3480000000000001</c:v>
+                  <c:v>1.1359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>0.92100000000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -309,69 +345,66 @@
                   <c:v>0.16769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16739999999999999</c:v>
+                  <c:v>0.13159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13159999999999999</c:v>
+                  <c:v>7.9799999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9799999999999996E-2</c:v>
+                  <c:v>5.8599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8599999999999999E-2</c:v>
+                  <c:v>5.3499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3499999999999999E-2</c:v>
+                  <c:v>5.0900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0900000000000001E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.05</c:v>
+                  <c:v>5.04E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.04E-2</c:v>
+                  <c:v>5.2600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2600000000000001E-2</c:v>
+                  <c:v>5.8200000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8200000000000002E-2</c:v>
+                  <c:v>7.8100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8100000000000003E-2</c:v>
+                  <c:v>0.13300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>0.16980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16980000000000001</c:v>
+                  <c:v>0.15939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15939999999999999</c:v>
+                  <c:v>0.16309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16309999999999999</c:v>
+                  <c:v>0.1656</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1656</c:v>
+                  <c:v>0.1711</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1711</c:v>
+                  <c:v>0.18090000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.18090000000000001</c:v>
+                  <c:v>0.1792</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1792</c:v>
+                  <c:v>0.16569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16569999999999999</c:v>
+                  <c:v>0.1326</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1326</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>8.4699999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -617,7 +650,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4600022519314435E-2"/>
+          <c:y val="5.504335260115608E-2"/>
+          <c:w val="0.94223471899105615"/>
+          <c:h val="0.91287822584315692"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2169,16 +2212,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>613269</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>128271</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>227890</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>75573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>246380</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>72767</xdr:rowOff>
+      <xdr:colOff>690735</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>20069</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2205,16 +2248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>674511</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200379</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2541,561 +2584,2231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09D2292-0CA9-3846-8C0C-F3E265C9A338}">
-  <dimension ref="B1:M44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="93" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>-4.8</v>
+      </c>
+      <c r="F3">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-5.8</v>
+      </c>
+      <c r="F4">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>-1.8</v>
+      </c>
+      <c r="C5">
+        <v>-6.2</v>
+      </c>
+      <c r="F5">
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>3.0179999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C12">
+        <v>0.113</v>
+      </c>
+      <c r="D12">
+        <f>B12/100000*10^6</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2E-3</v>
+      </c>
+      <c r="J12">
+        <v>0.122</v>
+      </c>
+      <c r="K12">
+        <f>I12/100000*10^6</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D36" si="0">B13/100000*10^6</f>
+        <v>0.30200000000000005</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K44" si="1">I13/100000*10^6</f>
+        <v>1.3819999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0.1474</v>
+      </c>
+      <c r="C14">
+        <v>1.25</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.474</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="J14">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1.851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.16769999999999999</v>
+      </c>
+      <c r="C15">
+        <v>1.51</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.6769999999999998</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="J15">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1.5840000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="C16">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0.1346</v>
+      </c>
+      <c r="J16">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1.3459999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>0.1231</v>
+      </c>
+      <c r="J17">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1.2309999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="J18">
+        <v>5.8929999999999998</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>1.3220000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="C19">
+        <v>5.0129999999999999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.53499999999999992</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="J19">
+        <v>6.8620000000000001</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.5040000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="C20">
+        <v>5.4770000000000003</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="J20">
+        <v>8.2989999999999995</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>0.05</v>
+      </c>
+      <c r="C21">
+        <v>6.1719999999999997</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="J21">
+        <v>9.8390000000000004</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>2.8740000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>5.04E-2</v>
+      </c>
+      <c r="C22">
+        <v>6.7270000000000003</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.504</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>0.41160000000000002</v>
+      </c>
+      <c r="J22">
+        <v>11.334</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>4.1159999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>7.444</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>0.1273</v>
+      </c>
+      <c r="J23">
+        <v>4.0609999999999999</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1.2729999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="C24">
+        <v>8.3960000000000008</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="J24">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>1.292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="C25">
+        <v>9.8260000000000005</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>0.1249</v>
+      </c>
+      <c r="J25">
+        <v>4.4809999999999999</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C26">
+        <v>11.935</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+      <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>0.126</v>
+      </c>
+      <c r="J26">
+        <v>5.2640000000000002</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="C27">
+        <v>2.004</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.6980000000000002</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0.1245</v>
+      </c>
+      <c r="J27">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>1.2449999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="C28">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.5939999999999999</v>
+      </c>
+      <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="J28">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>0.16309999999999999</v>
+      </c>
+      <c r="C29">
+        <v>2.117</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.631</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>0.1918</v>
+      </c>
+      <c r="J29">
+        <v>1.855</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>1.9180000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>0.1656</v>
+      </c>
+      <c r="C30">
+        <v>2.08</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>0.1966</v>
+      </c>
+      <c r="J30">
+        <v>1.69</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>0.1711</v>
+      </c>
+      <c r="C31">
+        <v>1.984</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>0.19769999999999999</v>
+      </c>
+      <c r="J31">
+        <v>1.62</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1.9769999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="C32">
+        <v>1.657</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="H32">
+        <v>21</v>
+      </c>
+      <c r="I32">
+        <v>0.1976</v>
+      </c>
+      <c r="J32">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>1.9759999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>0.1792</v>
+      </c>
+      <c r="C33">
+        <v>1.546</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1.792</v>
+      </c>
+      <c r="H33">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="J33">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>1.9400000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="C34">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1.6569999999999998</v>
+      </c>
+      <c r="H34">
+        <v>23</v>
+      </c>
+      <c r="I34">
+        <v>0.17929999999999999</v>
+      </c>
+      <c r="J34">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>1.7929999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>0.1326</v>
+      </c>
+      <c r="C35">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1.3259999999999998</v>
+      </c>
+      <c r="H35">
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="J35">
+        <v>1.127</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>1.6850000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="H36">
+        <v>25</v>
+      </c>
+      <c r="I36">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0.5149999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>27</v>
+      </c>
+      <c r="I38">
+        <v>3.32E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>28</v>
+      </c>
+      <c r="I39">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>0.21999999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>29</v>
+      </c>
+      <c r="I40">
+        <v>1.29E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="J41">
+        <v>0.27</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>31</v>
+      </c>
+      <c r="I42">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J42">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>32</v>
+      </c>
+      <c r="I43">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J43">
+        <v>2E-3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>33</v>
+      </c>
+      <c r="I44">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J44">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CEF923-3903-5842-8CBA-C0883BF6949F}">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.6980000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.3459999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.9769999999999999</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.30200000000000005</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.5939999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.2309999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.9759999999999998</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1.474</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.631</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.117</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.3220000000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.8929999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.9400000000000002</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1.6769999999999998</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.5040000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.8620000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.984</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8.2989999999999995</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.127</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.6850000000000003</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.657</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9.8390000000000004</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.792</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.546</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.1159999999999997</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11.334</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.5149999999999999</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0.53499999999999992</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5.0129999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.6569999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.0609999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.4770000000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.3259999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.292</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="J11">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6.1719999999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.4809999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0.504</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.7270000000000003</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5.2640000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.444</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.2449999999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8.3960000000000008</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.8260000000000005</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.851</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.855</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.9180000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11.935</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.5840000000000003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>0.13819999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>0.18509999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>0.15840000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>0.1346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>0.1231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>0.13220000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M26">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>-2</v>
-      </c>
-      <c r="C3">
-        <v>-4.8</v>
-      </c>
-      <c r="F3">
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="I3">
+      <c r="N26">
+        <v>0.15040000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>0.28739999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>11</v>
+      </c>
+      <c r="N29">
+        <v>0.41160000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>12</v>
+      </c>
+      <c r="N30">
+        <v>0.1273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>0.12920000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>14</v>
+      </c>
+      <c r="N32">
+        <v>0.1249</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>15</v>
+      </c>
+      <c r="N33">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>16</v>
+      </c>
+      <c r="N34">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>17</v>
+      </c>
+      <c r="N35">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>18</v>
+      </c>
+      <c r="N36">
+        <v>0.1918</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>0.1966</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M38">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>-2</v>
-      </c>
-      <c r="C4">
-        <v>-5.8</v>
-      </c>
-      <c r="F4">
-        <v>2.7829999999999999</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>-1.8</v>
-      </c>
-      <c r="C5">
-        <v>-6.2</v>
-      </c>
-      <c r="F5">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>3.0179999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C12">
-        <v>0.113</v>
-      </c>
-      <c r="I12">
-        <v>2E-3</v>
-      </c>
-      <c r="J12">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="C13">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.13819999999999999</v>
-      </c>
-      <c r="J13">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>0.1474</v>
-      </c>
-      <c r="C14">
-        <v>1.25</v>
-      </c>
-      <c r="I14">
-        <v>0.18509999999999999</v>
-      </c>
-      <c r="J14">
-        <v>1.9159999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>0.16769999999999999</v>
-      </c>
-      <c r="C15">
-        <v>1.51</v>
-      </c>
-      <c r="I15">
-        <v>0.15840000000000001</v>
-      </c>
-      <c r="J15">
-        <v>2.4630000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>0.16739999999999999</v>
-      </c>
-      <c r="C16">
-        <v>1.81</v>
-      </c>
-      <c r="I16">
-        <v>0.1346</v>
-      </c>
-      <c r="J16">
-        <v>3.2090000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>0.13159999999999999</v>
-      </c>
-      <c r="C17">
-        <v>2.4260000000000002</v>
-      </c>
-      <c r="I17">
-        <v>0.1231</v>
-      </c>
-      <c r="J17">
-        <v>4.6390000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="C18">
-        <v>3.4260000000000002</v>
-      </c>
-      <c r="I18">
-        <v>0.13220000000000001</v>
-      </c>
-      <c r="J18">
-        <v>5.8929999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>5.8599999999999999E-2</v>
-      </c>
-      <c r="C19">
-        <v>4.4870000000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.15040000000000001</v>
-      </c>
-      <c r="J19">
-        <v>6.8620000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="C20">
-        <v>5.0129999999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="J20">
-        <v>8.2989999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="C21">
-        <v>5.4770000000000003</v>
-      </c>
-      <c r="I21">
-        <v>0.28739999999999999</v>
-      </c>
-      <c r="J21">
-        <v>9.8390000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>0.05</v>
-      </c>
-      <c r="C22">
-        <v>6.1719999999999997</v>
-      </c>
-      <c r="I22">
-        <v>0.41160000000000002</v>
-      </c>
-      <c r="J22">
-        <v>11.334</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>5.04E-2</v>
-      </c>
-      <c r="C23">
-        <v>6.7270000000000003</v>
-      </c>
-      <c r="I23">
-        <v>0.1273</v>
-      </c>
-      <c r="J23">
-        <v>4.0609999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="C24">
-        <v>7.444</v>
-      </c>
-      <c r="I24">
-        <v>0.12920000000000001</v>
-      </c>
-      <c r="J24">
-        <v>3.8069999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="C25">
-        <v>8.3960000000000008</v>
-      </c>
-      <c r="I25">
-        <v>0.1249</v>
-      </c>
-      <c r="J25">
-        <v>4.4809999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="C26">
-        <v>9.8260000000000005</v>
-      </c>
-      <c r="I26">
-        <v>0.126</v>
-      </c>
-      <c r="J26">
-        <v>5.2640000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="C27">
-        <v>11.935</v>
-      </c>
-      <c r="I27">
-        <v>0.1245</v>
-      </c>
-      <c r="J27">
-        <v>4.7869999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>0.16980000000000001</v>
-      </c>
-      <c r="C28">
-        <v>2.004</v>
-      </c>
-      <c r="I28">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="J28">
-        <v>2.1760000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>0.15939999999999999</v>
-      </c>
-      <c r="C29">
-        <v>2.1680000000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.1918</v>
-      </c>
-      <c r="J29">
-        <v>1.855</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>0.16309999999999999</v>
-      </c>
-      <c r="C30">
-        <v>2.117</v>
-      </c>
-      <c r="I30">
-        <v>0.1966</v>
-      </c>
-      <c r="J30">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>0.1656</v>
-      </c>
-      <c r="C31">
-        <v>2.08</v>
-      </c>
-      <c r="I31">
+      <c r="N38">
         <v>0.19769999999999999</v>
       </c>
-      <c r="J31">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>0.1711</v>
-      </c>
-      <c r="C32">
-        <v>1.984</v>
-      </c>
-      <c r="I32">
+    </row>
+    <row r="39" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
         <v>0.1976</v>
       </c>
-      <c r="J32">
-        <v>1.5680000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>0.18090000000000001</v>
-      </c>
-      <c r="C33">
-        <v>1.657</v>
-      </c>
-      <c r="I33">
+    </row>
+    <row r="40" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>22</v>
+      </c>
+      <c r="N40">
         <v>0.19400000000000001</v>
       </c>
-      <c r="J33">
-        <v>1.3939999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>0.1792</v>
-      </c>
-      <c r="C34">
-        <v>1.546</v>
-      </c>
-      <c r="I34">
+    </row>
+    <row r="41" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>23</v>
+      </c>
+      <c r="N41">
         <v>0.17929999999999999</v>
       </c>
-      <c r="J34">
-        <v>1.2070000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="C35">
-        <v>1.3480000000000001</v>
-      </c>
-      <c r="I35">
+    </row>
+    <row r="42" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>24</v>
+      </c>
+      <c r="N42">
         <v>0.16850000000000001</v>
       </c>
-      <c r="J35">
-        <v>1.127</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>0.1326</v>
-      </c>
-      <c r="C36">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="I36">
+    </row>
+    <row r="43" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>25</v>
+      </c>
+      <c r="N43">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="J36">
-        <v>0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>8.4699999999999998E-2</v>
-      </c>
-      <c r="C37">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="I37">
+    </row>
+    <row r="44" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>26</v>
+      </c>
+      <c r="N44">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="J37">
-        <v>0.59799999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I38">
+    </row>
+    <row r="45" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>27</v>
+      </c>
+      <c r="N45">
         <v>3.32E-2</v>
       </c>
-      <c r="J38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I39">
+    </row>
+    <row r="46" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>28</v>
+      </c>
+      <c r="N46">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J39">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I40">
+    </row>
+    <row r="47" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>29</v>
+      </c>
+      <c r="N47">
         <v>1.29E-2</v>
       </c>
-      <c r="J40">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I41">
+    </row>
+    <row r="48" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>30</v>
+      </c>
+      <c r="N48">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="J41">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I42">
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>31</v>
+      </c>
+      <c r="N49">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J42">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I43">
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>32</v>
+      </c>
+      <c r="N50">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J43">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I44">
+    </row>
+    <row r="51" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>33</v>
+      </c>
+      <c r="N51">
         <v>1.4E-3</v>
-      </c>
-      <c r="J44">
-        <v>7.6999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638C8C65-2E2D-5943-9080-1D7E82EF099A}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.113</v>
+      </c>
+      <c r="B2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.30200000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="B5">
+        <v>1.3259999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.25</v>
+      </c>
+      <c r="B6">
+        <v>1.474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="B7">
+        <v>1.6569999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.546</v>
+      </c>
+      <c r="B8">
+        <v>1.792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1.657</v>
+      </c>
+      <c r="B9">
+        <v>1.8089999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.984</v>
+      </c>
+      <c r="B10">
+        <v>1.7110000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2.004</v>
+      </c>
+      <c r="B11">
+        <v>1.6980000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2.08</v>
+      </c>
+      <c r="B12">
+        <v>1.6559999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2.117</v>
+      </c>
+      <c r="B13">
+        <v>1.631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="B14">
+        <v>1.5939999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="B15">
+        <v>1.3160000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="B16">
+        <v>0.79799999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="B17">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5.0129999999999999</v>
+      </c>
+      <c r="B18">
+        <v>0.53499999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5.4770000000000003</v>
+      </c>
+      <c r="B19">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6.1719999999999997</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6.7270000000000003</v>
+      </c>
+      <c r="B21">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.444</v>
+      </c>
+      <c r="B22">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.3960000000000008</v>
+      </c>
+      <c r="B23">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9.8260000000000005</v>
+      </c>
+      <c r="B24">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>11.935</v>
+      </c>
+      <c r="B25">
+        <v>1.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29842AB-9810-754F-BFFB-3462980ED7F9}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2E-3</v>
+      </c>
+      <c r="B2">
+        <v>5.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="B3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.122</v>
+      </c>
+      <c r="B4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="B5">
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.27</v>
+      </c>
+      <c r="B6">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="B7">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.21999999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.5</v>
+      </c>
+      <c r="B9">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="B10">
+        <v>0.5149999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="B11">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="B12">
+        <v>1.3819999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.127</v>
+      </c>
+      <c r="B13">
+        <v>1.6850000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="B14">
+        <v>1.7929999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="B15">
+        <v>1.9400000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="B16">
+        <v>1.9759999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.62</v>
+      </c>
+      <c r="B17">
+        <v>1.9769999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.69</v>
+      </c>
+      <c r="B18">
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.855</v>
+      </c>
+      <c r="B19">
+        <v>1.9180000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="B20">
+        <v>1.851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="B21">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="B22">
+        <v>1.5840000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="B23">
+        <v>1.3459999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="B24">
+        <v>1.292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4.0609999999999999</v>
+      </c>
+      <c r="B25">
+        <v>1.2729999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4.4809999999999999</v>
+      </c>
+      <c r="B26">
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="B27">
+        <v>1.2309999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="B28">
+        <v>1.2449999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5.2640000000000002</v>
+      </c>
+      <c r="B29">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5.8929999999999998</v>
+      </c>
+      <c r="B30">
+        <v>1.3220000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6.8620000000000001</v>
+      </c>
+      <c r="B31">
+        <v>1.5040000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8.2989999999999995</v>
+      </c>
+      <c r="B32">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9.8390000000000004</v>
+      </c>
+      <c r="B33">
+        <v>2.8740000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>11.334</v>
+      </c>
+      <c r="B34">
+        <v>4.1159999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+    <sortCondition ref="A2:A34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>